--- a/natmiOut/OldD0/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.33006383876256</v>
+        <v>2.220712</v>
       </c>
       <c r="H2">
-        <v>1.33006383876256</v>
+        <v>6.662135999999999</v>
       </c>
       <c r="I2">
-        <v>0.002500102154292384</v>
+        <v>0.004164179109543329</v>
       </c>
       <c r="J2">
-        <v>0.002500102154292384</v>
+        <v>0.00416417910954333</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.527723128012633</v>
+        <v>0.6120643333333334</v>
       </c>
       <c r="N2">
-        <v>0.527723128012633</v>
+        <v>1.836193</v>
       </c>
       <c r="O2">
-        <v>0.01209408869881419</v>
+        <v>0.01381035804569015</v>
       </c>
       <c r="P2">
-        <v>0.01209408869881419</v>
+        <v>0.01381035804569015</v>
       </c>
       <c r="Q2">
-        <v>0.7019054494482685</v>
+        <v>1.359218609805333</v>
       </c>
       <c r="R2">
-        <v>0.7019054494482685</v>
+        <v>12.232967488248</v>
       </c>
       <c r="S2">
-        <v>3.023645721010854E-05</v>
+        <v>5.750880446917658E-05</v>
       </c>
       <c r="T2">
-        <v>3.023645721010854E-05</v>
+        <v>5.750880446917659E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.33006383876256</v>
+        <v>2.220712</v>
       </c>
       <c r="H3">
-        <v>1.33006383876256</v>
+        <v>6.662135999999999</v>
       </c>
       <c r="I3">
-        <v>0.002500102154292384</v>
+        <v>0.004164179109543329</v>
       </c>
       <c r="J3">
-        <v>0.002500102154292384</v>
+        <v>0.00416417910954333</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.5212599323972</v>
+        <v>4.841148333333333</v>
       </c>
       <c r="N3">
-        <v>4.5212599323972</v>
+        <v>14.523445</v>
       </c>
       <c r="O3">
-        <v>0.1036159223468739</v>
+        <v>0.1092336020815287</v>
       </c>
       <c r="P3">
-        <v>0.1036159223468739</v>
+        <v>0.1092336020815287</v>
       </c>
       <c r="Q3">
-        <v>6.013564341727573</v>
+        <v>10.75079619761333</v>
       </c>
       <c r="R3">
-        <v>6.013564341727573</v>
+        <v>96.75716577851999</v>
       </c>
       <c r="S3">
-        <v>0.0002590503906784119</v>
+        <v>0.0004548682838480705</v>
       </c>
       <c r="T3">
-        <v>0.0002590503906784119</v>
+        <v>0.0004548682838480705</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.33006383876256</v>
+        <v>2.220712</v>
       </c>
       <c r="H4">
-        <v>1.33006383876256</v>
+        <v>6.662135999999999</v>
       </c>
       <c r="I4">
-        <v>0.002500102154292384</v>
+        <v>0.004164179109543329</v>
       </c>
       <c r="J4">
-        <v>0.002500102154292384</v>
+        <v>0.00416417910954333</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.5858158198378</v>
+        <v>38.86601</v>
       </c>
       <c r="N4">
-        <v>38.5858158198378</v>
+        <v>116.59803</v>
       </c>
       <c r="O4">
-        <v>0.8842899889543119</v>
+        <v>0.8769560398727811</v>
       </c>
       <c r="P4">
-        <v>0.8842899889543119</v>
+        <v>0.8769560398727813</v>
       </c>
       <c r="Q4">
-        <v>51.32159831111858</v>
+        <v>86.31021479911998</v>
       </c>
       <c r="R4">
-        <v>51.32159831111858</v>
+        <v>776.7919331920799</v>
       </c>
       <c r="S4">
-        <v>0.002210815306403864</v>
+        <v>0.003651802021226082</v>
       </c>
       <c r="T4">
-        <v>0.002210815306403864</v>
+        <v>0.003651802021226083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>527.4731245622251</v>
+        <v>527.8012189999999</v>
       </c>
       <c r="H5">
-        <v>527.4731245622251</v>
+        <v>1583.403657</v>
       </c>
       <c r="I5">
-        <v>0.9914837593632013</v>
+        <v>0.9897090708526379</v>
       </c>
       <c r="J5">
-        <v>0.9914837593632013</v>
+        <v>0.9897090708526382</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.527723128012633</v>
+        <v>0.6120643333333334</v>
       </c>
       <c r="N5">
-        <v>0.527723128012633</v>
+        <v>1.836193</v>
       </c>
       <c r="O5">
-        <v>0.01209408869881419</v>
+        <v>0.01381035804569015</v>
       </c>
       <c r="P5">
-        <v>0.01209408869881419</v>
+        <v>0.01381035804569015</v>
       </c>
       <c r="Q5">
-        <v>278.3597672365746</v>
+        <v>323.0483012397557</v>
       </c>
       <c r="R5">
-        <v>278.3597672365746</v>
+        <v>2907.434711157801</v>
       </c>
       <c r="S5">
-        <v>0.0119910925291723</v>
+        <v>0.01366823662954226</v>
       </c>
       <c r="T5">
-        <v>0.0119910925291723</v>
+        <v>0.01366823662954226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>527.4731245622251</v>
+        <v>527.8012189999999</v>
       </c>
       <c r="H6">
-        <v>527.4731245622251</v>
+        <v>1583.403657</v>
       </c>
       <c r="I6">
-        <v>0.9914837593632013</v>
+        <v>0.9897090708526379</v>
       </c>
       <c r="J6">
-        <v>0.9914837593632013</v>
+        <v>0.9897090708526382</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.5212599323972</v>
+        <v>4.841148333333333</v>
       </c>
       <c r="N6">
-        <v>4.5212599323972</v>
+        <v>14.523445</v>
       </c>
       <c r="O6">
-        <v>0.1036159223468739</v>
+        <v>0.1092336020815287</v>
       </c>
       <c r="P6">
-        <v>0.1036159223468739</v>
+        <v>0.1092336020815287</v>
       </c>
       <c r="Q6">
-        <v>2384.843103499546</v>
+        <v>2555.163991693151</v>
       </c>
       <c r="R6">
-        <v>2384.843103499546</v>
+        <v>22996.47592523836</v>
       </c>
       <c r="S6">
-        <v>0.1027335042183641</v>
+        <v>0.1081094868219965</v>
       </c>
       <c r="T6">
-        <v>0.1027335042183641</v>
+        <v>0.1081094868219966</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>527.4731245622251</v>
+        <v>527.8012189999999</v>
       </c>
       <c r="H7">
-        <v>527.4731245622251</v>
+        <v>1583.403657</v>
       </c>
       <c r="I7">
-        <v>0.9914837593632013</v>
+        <v>0.9897090708526379</v>
       </c>
       <c r="J7">
-        <v>0.9914837593632013</v>
+        <v>0.9897090708526382</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.5858158198378</v>
+        <v>38.86601</v>
       </c>
       <c r="N7">
-        <v>38.5858158198378</v>
+        <v>116.59803</v>
       </c>
       <c r="O7">
-        <v>0.8842899889543119</v>
+        <v>0.8769560398727811</v>
       </c>
       <c r="P7">
-        <v>0.8842899889543119</v>
+        <v>0.8769560398727813</v>
       </c>
       <c r="Q7">
-        <v>20352.98083427238</v>
+        <v>20513.52745566619</v>
       </c>
       <c r="R7">
-        <v>20352.98083427238</v>
+        <v>184621.7471009957</v>
       </c>
       <c r="S7">
-        <v>0.8767591626156649</v>
+        <v>0.8679313474010991</v>
       </c>
       <c r="T7">
-        <v>0.8767591626156649</v>
+        <v>0.8679313474010995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.20060851546854</v>
+        <v>3.26733</v>
       </c>
       <c r="H8">
-        <v>3.20060851546854</v>
+        <v>9.80199</v>
       </c>
       <c r="I8">
-        <v>0.006016138482506266</v>
+        <v>0.006126750037818593</v>
       </c>
       <c r="J8">
-        <v>0.006016138482506266</v>
+        <v>0.006126750037818595</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.527723128012633</v>
+        <v>0.6120643333333334</v>
       </c>
       <c r="N8">
-        <v>0.527723128012633</v>
+        <v>1.836193</v>
       </c>
       <c r="O8">
-        <v>0.01209408869881419</v>
+        <v>0.01381035804569015</v>
       </c>
       <c r="P8">
-        <v>0.01209408869881419</v>
+        <v>0.01381035804569015</v>
       </c>
       <c r="Q8">
-        <v>1.689035137326928</v>
+        <v>1.99981615823</v>
       </c>
       <c r="R8">
-        <v>1.689035137326928</v>
+        <v>17.99834542407</v>
       </c>
       <c r="S8">
-        <v>7.275971243178019E-05</v>
+        <v>8.461261167872047E-05</v>
       </c>
       <c r="T8">
-        <v>7.275971243178019E-05</v>
+        <v>8.461261167872049E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.20060851546854</v>
+        <v>3.26733</v>
       </c>
       <c r="H9">
-        <v>3.20060851546854</v>
+        <v>9.80199</v>
       </c>
       <c r="I9">
-        <v>0.006016138482506266</v>
+        <v>0.006126750037818593</v>
       </c>
       <c r="J9">
-        <v>0.006016138482506266</v>
+        <v>0.006126750037818595</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.5212599323972</v>
+        <v>4.841148333333333</v>
       </c>
       <c r="N9">
-        <v>4.5212599323972</v>
+        <v>14.523445</v>
       </c>
       <c r="O9">
-        <v>0.1036159223468739</v>
+        <v>0.1092336020815287</v>
       </c>
       <c r="P9">
-        <v>0.1036159223468739</v>
+        <v>0.1092336020815287</v>
       </c>
       <c r="Q9">
-        <v>14.47078304027719</v>
+        <v>15.81762918395</v>
       </c>
       <c r="R9">
-        <v>14.47078304027719</v>
+        <v>142.35866265555</v>
       </c>
       <c r="S9">
-        <v>0.0006233677378314092</v>
+        <v>0.000669246975684067</v>
       </c>
       <c r="T9">
-        <v>0.0006233677378314092</v>
+        <v>0.0006692469756840673</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.20060851546854</v>
+        <v>3.26733</v>
       </c>
       <c r="H10">
-        <v>3.20060851546854</v>
+        <v>9.80199</v>
       </c>
       <c r="I10">
-        <v>0.006016138482506266</v>
+        <v>0.006126750037818593</v>
       </c>
       <c r="J10">
-        <v>0.006016138482506266</v>
+        <v>0.006126750037818595</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>38.5858158198378</v>
+        <v>38.86601</v>
       </c>
       <c r="N10">
-        <v>38.5858158198378</v>
+        <v>116.59803</v>
       </c>
       <c r="O10">
-        <v>0.8842899889543119</v>
+        <v>0.8769560398727811</v>
       </c>
       <c r="P10">
-        <v>0.8842899889543119</v>
+        <v>0.8769560398727813</v>
       </c>
       <c r="Q10">
-        <v>123.4980906892736</v>
+        <v>126.9880804533</v>
       </c>
       <c r="R10">
-        <v>123.4980906892736</v>
+        <v>1142.8927240797</v>
       </c>
       <c r="S10">
-        <v>0.005320011032243077</v>
+        <v>0.005372890450455805</v>
       </c>
       <c r="T10">
-        <v>0.005320011032243077</v>
+        <v>0.005372890450455808</v>
       </c>
     </row>
   </sheetData>
